--- a/Formula 1.xlsx
+++ b/Formula 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Youtube VD\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solon\Documents\MATLAB\OpenLAP-Lap-Time-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DF814-1F50-4E01-A77E-77AE5CC579DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8745" windowHeight="12405"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -333,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,11 +728,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B19" totalsRowShown="0">
-  <autoFilter ref="A1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B19" totalsRowShown="0">
+  <autoFilter ref="A1:B19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Engine Speed [rpm]"/>
-    <tableColumn id="2" name="Torque [Nm]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine Speed [rpm]"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Torque [Nm]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -999,23 +1000,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="34"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1062,7 +1063,7 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="34"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -1090,7 +1091,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1106,7 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35"/>
       <c r="B9" s="2" t="s">
         <v>74</v>
@@ -1154,7 +1155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -1167,7 +1168,7 @@
       </c>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -1180,7 +1181,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="35"/>
       <c r="B12" s="2" t="s">
         <v>72</v>
@@ -1193,7 +1194,7 @@
       </c>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="34"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
@@ -1221,7 +1222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="33" t="s">
         <v>20</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="35"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1253,7 +1254,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35"/>
       <c r="B17" s="2" t="s">
         <v>78</v>
@@ -1268,7 +1269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="35"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
@@ -1283,7 +1284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -1298,7 +1299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="35"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -1313,7 +1314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="34"/>
       <c r="B21" s="12" t="s">
         <v>29</v>
@@ -1328,7 +1329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1344,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -1358,7 +1359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="35"/>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -1373,7 +1374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
@@ -1388,7 +1389,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="35"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1403,7 +1404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -1418,7 +1419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="35"/>
       <c r="B28" s="2" t="s">
         <v>39</v>
@@ -1433,7 +1434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="2" t="s">
         <v>40</v>
@@ -1448,7 +1449,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="35"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
@@ -1463,7 +1464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
@@ -1478,7 +1479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="34"/>
       <c r="B32" s="12" t="s">
         <v>43</v>
@@ -1493,7 +1494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1509,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="35"/>
       <c r="B34" s="2" t="s">
         <v>52</v>
@@ -1523,7 +1524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="34"/>
       <c r="B35" s="12" t="s">
         <v>53</v>
@@ -1538,7 +1539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="30" t="s">
         <v>55</v>
       </c>
@@ -1553,13 +1554,13 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="31"/>
       <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>80</v>
@@ -1568,7 +1569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="31"/>
       <c r="B38" s="5" t="s">
         <v>75</v>
@@ -1583,7 +1584,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="31"/>
       <c r="B39" s="5" t="s">
         <v>76</v>
@@ -1598,7 +1599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="31"/>
       <c r="B40" s="5" t="s">
         <v>77</v>
@@ -1613,7 +1614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>60</v>
@@ -1628,7 +1629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
@@ -1641,7 +1642,7 @@
       </c>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="31"/>
       <c r="B43" s="27" t="s">
         <v>62</v>
@@ -1654,7 +1655,7 @@
       </c>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="31"/>
       <c r="B44" s="27" t="s">
         <v>63</v>
@@ -1667,7 +1668,7 @@
       </c>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="31"/>
       <c r="B45" s="27" t="s">
         <v>64</v>
@@ -1680,7 +1681,7 @@
       </c>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="31"/>
       <c r="B46" s="27" t="s">
         <v>65</v>
@@ -1693,7 +1694,7 @@
       </c>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="31"/>
       <c r="B47" s="27" t="s">
         <v>66</v>
@@ -1706,7 +1707,7 @@
       </c>
       <c r="E47" s="21"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="31"/>
       <c r="B48" s="27" t="s">
         <v>67</v>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="31"/>
       <c r="B49" s="27" t="s">
         <v>68</v>
@@ -1732,7 +1733,7 @@
       </c>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="31"/>
       <c r="B50" s="27" t="s">
         <v>69</v>
@@ -1743,7 +1744,7 @@
       </c>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="31"/>
       <c r="B51" s="27" t="s">
         <v>70</v>
@@ -1754,7 +1755,7 @@
       </c>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="32"/>
       <c r="B52" s="28" t="s">
         <v>71</v>
@@ -1781,20 +1782,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4000</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5000</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6000</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9000</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10000</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11000</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12000</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13000</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14000</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15000</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16000</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17000</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18000</v>
       </c>
